--- a/config_aomi_10.26/game_module_config.xlsx
+++ b/config_aomi_10.26/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1039">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3920,10 +3920,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_037</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_061_xyhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3953,6 +3949,22 @@
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_weekly_038</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_062_HGHDManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_062_hghd</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4632,13 +4644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:I353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D338" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="I351" sqref="I351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12706,7 +12718,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12729,7 +12741,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12752,7 +12764,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12798,7 +12810,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13157,7 +13169,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
@@ -13574,8 +13586,8 @@
         <v>1</v>
       </c>
       <c r="H351" s="5"/>
-      <c r="I351" s="63">
-        <v>44487</v>
+      <c r="I351" s="63" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -13583,13 +13595,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C352" s="64" t="s">
         <v>1028</v>
       </c>
-      <c r="C352" s="64" t="s">
+      <c r="D352" s="64" t="s">
         <v>1029</v>
-      </c>
-      <c r="D352" s="64" t="s">
-        <v>1030</v>
       </c>
       <c r="E352" s="5">
         <v>1</v>
@@ -13602,6 +13614,32 @@
       </c>
       <c r="I352" s="63">
         <v>44501</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" s="5">
+        <v>352</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C353" s="64" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D353" s="64" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E353" s="5">
+        <v>1</v>
+      </c>
+      <c r="F353" s="5">
+        <v>1</v>
+      </c>
+      <c r="G353" s="5">
+        <v>1</v>
+      </c>
+      <c r="I353" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi_10.26/game_module_config.xlsx
+++ b/config_aomi_10.26/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1042">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3961,6 +3961,18 @@
   </si>
   <si>
     <t>act_062_hghd</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_hghd_001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动皮肤</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -4644,13 +4656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I353"/>
+  <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D338" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I351" sqref="I351"/>
+      <selection pane="bottomRight" activeCell="I354" sqref="I354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13640,6 +13652,29 @@
       </c>
       <c r="I353" t="s">
         <v>1038</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" s="5">
+        <v>353</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C354" s="64" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E354" s="5">
+        <v>1</v>
+      </c>
+      <c r="F354" s="5">
+        <v>1</v>
+      </c>
+      <c r="G354" s="5">
+        <v>1</v>
+      </c>
+      <c r="I354" s="63" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
